--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="326">
   <si>
     <t>Path</t>
   </si>
@@ -354,10 +354,7 @@
 </t>
   </si>
   <si>
-    <t>Canonical reference to the specific version of the measure used to generate the care gap or population.</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Canonical reference to the specific version of the measure used to generate the care gap or population</t>
   </si>
   <si>
     <t>measurePopulationId</t>
@@ -377,7 +374,7 @@
 </t>
   </si>
   <si>
-    <t>The practitioners assigned to the patient when the care gap or measure population was identified.</t>
+    <t>The practitioners assigned to the patient when the care gap or measure population was identified</t>
   </si>
   <si>
     <t>careGapComplianceDisplayName</t>
@@ -407,7 +404,7 @@
 </t>
   </si>
   <si>
-    <t>Indicates if the patient received the targeted treatment to close the care gap.</t>
+    <t>Indicates if the patient received the targeted treatment to close the care gap</t>
   </si>
   <si>
     <t>relatedIssue</t>
@@ -417,7 +414,7 @@
 </t>
   </si>
   <si>
-    <t>Related issue that can be combined to fulfill a single time period for a given care gap.</t>
+    <t>Related issue that can be combined to fulfill a single time period for a given care gap</t>
   </si>
   <si>
     <t>DetectedIssue.modifierExtension</t>
@@ -2272,7 +2269,7 @@
         <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2355,7 +2352,7 @@
         <v>96</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>43</v>
@@ -2377,13 +2374,13 @@
         <v>43</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2466,7 +2463,7 @@
         <v>96</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>43</v>
@@ -2488,13 +2485,13 @@
         <v>43</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2577,7 +2574,7 @@
         <v>96</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>43</v>
@@ -2599,13 +2596,13 @@
         <v>43</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2688,7 +2685,7 @@
         <v>96</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>43</v>
@@ -2710,13 +2707,13 @@
         <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2799,7 +2796,7 @@
         <v>96</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>43</v>
@@ -2821,13 +2818,13 @@
         <v>43</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2910,7 +2907,7 @@
         <v>96</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>43</v>
@@ -2932,13 +2929,13 @@
         <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3018,11 +3015,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3044,16 +3041,16 @@
         <v>98</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>43</v>
@@ -3102,7 +3099,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3131,7 +3128,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3154,17 +3151,17 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>43</v>
@@ -3201,10 +3198,10 @@
         <v>43</v>
       </c>
       <c r="AA18" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AB18" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>43</v>
@@ -3213,7 +3210,7 @@
         <v>102</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3228,21 +3225,21 @@
         <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>144</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3268,10 +3265,10 @@
         <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3322,28 +3319,28 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>43</v>
@@ -3351,11 +3348,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3377,13 +3374,13 @@
         <v>98</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3424,7 +3421,7 @@
         <v>101</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>43</v>
@@ -3433,7 +3430,7 @@
         <v>102</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3454,7 +3451,7 @@
         <v>43</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>43</v>
@@ -3462,7 +3459,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3488,16 +3485,16 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>43</v>
@@ -3522,31 +3519,31 @@
         <v>43</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3567,7 +3564,7 @@
         <v>65</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>43</v>
@@ -3575,7 +3572,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3598,19 +3595,19 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>43</v>
@@ -3635,29 +3632,29 @@
         <v>43</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3675,10 +3672,10 @@
         <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>43</v>
@@ -3686,7 +3683,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3712,16 +3709,16 @@
         <v>67</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>43</v>
@@ -3734,43 +3731,43 @@
         <v>43</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3788,10 +3785,10 @@
         <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>43</v>
@@ -3799,7 +3796,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3825,13 +3822,13 @@
         <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3845,43 +3842,43 @@
         <v>43</v>
       </c>
       <c r="S24" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3899,10 +3896,10 @@
         <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>43</v>
@@ -3910,7 +3907,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3933,13 +3930,13 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3990,7 +3987,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4008,10 +4005,10 @@
         <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -4019,7 +4016,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4042,16 +4039,16 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4101,7 +4098,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4119,10 +4116,10 @@
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -4130,10 +4127,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>43</v>
@@ -4155,17 +4152,17 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4214,7 +4211,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4229,21 +4226,21 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>144</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4269,10 +4266,10 @@
         <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4323,28 +4320,28 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>43</v>
@@ -4352,11 +4349,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4378,13 +4375,13 @@
         <v>98</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4425,7 +4422,7 @@
         <v>101</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>43</v>
@@ -4434,7 +4431,7 @@
         <v>102</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4455,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>43</v>
@@ -4463,7 +4460,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4489,16 +4486,16 @@
         <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
@@ -4508,7 +4505,7 @@
         <v>43</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>43</v>
@@ -4523,31 +4520,31 @@
         <v>43</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4568,7 +4565,7 @@
         <v>65</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -4576,7 +4573,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4599,19 +4596,19 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>43</v>
@@ -4621,29 +4618,29 @@
         <v>43</v>
       </c>
       <c r="R31" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X31" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="S31" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X31" t="s" s="2">
+      <c r="Y31" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>43</v>
       </c>
@@ -4660,7 +4657,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4678,10 +4675,10 @@
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -4689,7 +4686,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4715,16 +4712,16 @@
         <v>67</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
@@ -4737,43 +4734,43 @@
         <v>43</v>
       </c>
       <c r="S32" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4791,10 +4788,10 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -4802,7 +4799,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4828,13 +4825,13 @@
         <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4848,43 +4845,43 @@
         <v>43</v>
       </c>
       <c r="S33" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4902,10 +4899,10 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
@@ -4913,7 +4910,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4936,13 +4933,13 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4993,7 +4990,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5011,10 +5008,10 @@
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
@@ -5022,7 +5019,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5045,16 +5042,16 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5104,7 +5101,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5122,10 +5119,10 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>43</v>
@@ -5133,11 +5130,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5159,13 +5156,13 @@
         <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5191,14 +5188,14 @@
         <v>43</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>43</v>
       </c>
@@ -5215,7 +5212,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>51</v>
@@ -5230,25 +5227,25 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>220</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5267,13 +5264,13 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5303,11 +5300,11 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>43</v>
       </c>
@@ -5324,7 +5321,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5339,25 +5336,25 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5379,10 +5376,10 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5409,14 +5406,14 @@
         <v>43</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>43</v>
       </c>
@@ -5433,7 +5430,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5451,18 +5448,18 @@
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5485,17 +5482,17 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>43</v>
@@ -5544,7 +5541,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5559,21 +5556,21 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5596,17 +5593,17 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
@@ -5655,7 +5652,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5670,21 +5667,21 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5707,13 +5704,13 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5764,7 +5761,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5779,25 +5776,25 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5816,16 +5813,16 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5875,7 +5872,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5890,13 +5887,13 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>43</v>
@@ -5904,7 +5901,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5927,13 +5924,13 @@
         <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5984,7 +5981,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6008,12 +6005,12 @@
         <v>43</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6039,10 +6036,10 @@
         <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6093,28 +6090,28 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
@@ -6122,11 +6119,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6148,13 +6145,13 @@
         <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6204,7 +6201,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6225,7 +6222,7 @@
         <v>43</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>43</v>
@@ -6233,11 +6230,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6259,16 +6256,16 @@
         <v>98</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="M46" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -6317,7 +6314,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6346,7 +6343,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6369,13 +6366,13 @@
         <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6402,14 +6399,14 @@
         <v>43</v>
       </c>
       <c r="W47" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="X47" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="X47" t="s" s="2">
+      <c r="Y47" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>43</v>
       </c>
@@ -6426,7 +6423,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6450,12 +6447,12 @@
         <v>43</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6478,13 +6475,13 @@
         <v>43</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6535,7 +6532,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6559,12 +6556,12 @@
         <v>43</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6590,13 +6587,13 @@
         <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6646,7 +6643,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6661,13 +6658,13 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>43</v>
@@ -6675,7 +6672,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6701,10 +6698,10 @@
         <v>67</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6755,7 +6752,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6776,7 +6773,7 @@
         <v>43</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>43</v>
@@ -6784,7 +6781,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6807,13 +6804,13 @@
         <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6864,7 +6861,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6885,7 +6882,7 @@
         <v>43</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>43</v>
@@ -6893,7 +6890,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6919,10 +6916,10 @@
         <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6973,28 +6970,28 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>43</v>
@@ -7002,11 +6999,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7028,13 +7025,13 @@
         <v>98</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7084,7 +7081,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7105,7 +7102,7 @@
         <v>43</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>43</v>
@@ -7113,11 +7110,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7139,16 +7136,16 @@
         <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="M54" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -7197,7 +7194,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7226,7 +7223,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7249,16 +7246,16 @@
         <v>43</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7287,11 +7284,11 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>43</v>
       </c>
@@ -7308,7 +7305,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>51</v>
@@ -7329,7 +7326,7 @@
         <v>43</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>43</v>
@@ -7337,7 +7334,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7360,16 +7357,16 @@
         <v>43</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7419,7 +7416,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7440,7 +7437,7 @@
         <v>43</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>43</v>
@@ -7448,7 +7445,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7471,13 +7468,13 @@
         <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7528,7 +7525,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7549,7 +7546,7 @@
         <v>43</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="361">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,16 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -572,6 +575,9 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>Source</t>
+  </si>
+  <si>
     <t>DetectedIssue.identifier.id</t>
   </si>
   <si>
@@ -615,6 +621,9 @@
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>official</t>
   </si>
   <si>
     <t>required</t>
@@ -649,122 +658,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>DetectedIssue.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>DetectedIssue.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>DetectedIssue.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>DetectedIssue.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>official</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -775,10 +668,128 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>DetectedIssue.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>DetectedIssue.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>DetectedIssue.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>DetectedIssue.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>Derived</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;code value="DRI"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>DetectedIssue.status</t>
@@ -1269,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1345,90 +1356,84 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM57"/>
+  <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1490,6317 +1495,6432 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG8" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG9" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AD9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="T24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>225</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="C28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R30" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="T33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>225</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>273</v>
+        <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>276</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="AM40" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="AM41" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE43" t="s" s="2">
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AF43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>313</v>
+        <v>161</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>314</v>
+        <v>185</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>186</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N46" t="s" s="2">
         <v>164</v>
       </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>299</v>
+        <v>201</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>301</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AL50" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>306</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>178</v>
+        <v>340</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>179</v>
+        <v>341</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>181</v>
+        <v>342</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>313</v>
+        <v>161</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>314</v>
+        <v>185</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>315</v>
+        <v>186</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>164</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>261</v>
+        <v>99</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K57" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1452,43 +1452,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.29296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="31.72265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="40.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="40.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="186.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="186.7890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="173.36328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.3828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.38671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="109.046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="109.05078125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="362">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,307 +278,311 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>DetectedIssue.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DetectedIssue.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>DetectedIssue.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>DetectedIssue.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>DetectedIssue.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>DetectedIssue.extension</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>canonicalMeasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/canonical-measure}
+</t>
+  </si>
+  <si>
+    <t>Canonical reference to the specific version of the measure used to generate the care gap or population</t>
+  </si>
+  <si>
+    <t>measurePopulationId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-population-id}
+</t>
+  </si>
+  <si>
+    <t>User-friendly textual key (internal use only) that identifies the care gap. This id should be unique across all measures and should not change when a measure is versioned or when overrides are applied.</t>
+  </si>
+  <si>
+    <t>assignedPractitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/assigned-practitioner}
+</t>
+  </si>
+  <si>
+    <t>The practitioners assigned to the patient when the care gap or measure population was identified</t>
+  </si>
+  <si>
+    <t>careGapComplianceDisplayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/care-gap-compliance-display-name}
+</t>
+  </si>
+  <si>
+    <t>Text describing the treatment or compliance event required to close the care gap.  Should be suitable for display to patient.</t>
+  </si>
+  <si>
+    <t>careGapComplianceFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/care-gap-compliance-frequency}
+</t>
+  </si>
+  <si>
+    <t>Text describing the frequency of the treatment or compliance event required to close the care gap.  Frequency should be suitable for display to patient.</t>
+  </si>
+  <si>
+    <t>careGapComplianceMet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/care-gap-compliance-met}
+</t>
+  </si>
+  <si>
+    <t>Indicates if the patient received the targeted treatment to close the care gap</t>
+  </si>
+  <si>
+    <t>relatedIssue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/related-issue}
+</t>
+  </si>
+  <si>
+    <t>Related issue that can be combined to fulfill a single time period for a given care gap</t>
+  </si>
+  <si>
+    <t>DetectedIssue.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DetectedIssue.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique id for the detected issue</t>
+  </si>
+  <si>
+    <t>Business identifier associated with the detected issue record.</t>
+  </si>
+  <si>
+    <t>Allows linking instances of the same detected issue found on different servers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
+    <t>Slice based on entry system</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>IAM-7</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>DetectedIssue.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>DetectedIssue.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>DetectedIssue.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>DetectedIssue.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>DetectedIssue.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>DetectedIssue.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>DetectedIssue.extension</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>canonicalMeasure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/canonical-measure}
-</t>
-  </si>
-  <si>
-    <t>Canonical reference to the specific version of the measure used to generate the care gap or population</t>
-  </si>
-  <si>
-    <t>measurePopulationId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-population-id}
-</t>
-  </si>
-  <si>
-    <t>User-friendly textual key (internal use only) that identifies the care gap. This id should be unique across all measures and should not change when a measure is versioned or when overrides are applied.</t>
-  </si>
-  <si>
-    <t>assignedPractitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/assigned-practitioner}
-</t>
-  </si>
-  <si>
-    <t>The practitioners assigned to the patient when the care gap or measure population was identified</t>
-  </si>
-  <si>
-    <t>careGapComplianceDisplayName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/care-gap-compliance-display-name}
-</t>
-  </si>
-  <si>
-    <t>Text describing the treatment or compliance event required to close the care gap.  Should be suitable for display to patient.</t>
-  </si>
-  <si>
-    <t>careGapComplianceFrequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/care-gap-compliance-frequency}
-</t>
-  </si>
-  <si>
-    <t>Text describing the frequency of the treatment or compliance event required to close the care gap.  Frequency should be suitable for display to patient.</t>
-  </si>
-  <si>
-    <t>careGapComplianceMet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/care-gap-compliance-met}
-</t>
-  </si>
-  <si>
-    <t>Indicates if the patient received the targeted treatment to close the care gap</t>
-  </si>
-  <si>
-    <t>relatedIssue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/related-issue}
-</t>
-  </si>
-  <si>
-    <t>Related issue that can be combined to fulfill a single time period for a given care gap</t>
-  </si>
-  <si>
-    <t>DetectedIssue.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DetectedIssue.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Unique id for the detected issue</t>
-  </si>
-  <si>
-    <t>Business identifier associated with the detected issue record.</t>
-  </si>
-  <si>
-    <t>Allows linking instances of the same detected issue found on different servers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:type}
-</t>
-  </si>
-  <si>
-    <t>Slice based on entry system</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>IAM-7</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>DetectedIssue.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3631,13 +3635,13 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3688,7 +3692,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3709,7 +3713,7 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3717,7 +3721,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3743,10 +3747,10 @@
         <v>132</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>164</v>
@@ -3790,7 +3794,7 @@
         <v>135</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>77</v>
@@ -3799,7 +3803,7 @@
         <v>136</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3820,7 +3824,7 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3828,7 +3832,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3854,16 +3858,16 @@
         <v>107</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -3873,7 +3877,7 @@
         <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>77</v>
@@ -3888,13 +3892,13 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -3912,7 +3916,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3933,7 +3937,7 @@
         <v>99</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3941,7 +3945,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3964,19 +3968,19 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -3986,7 +3990,7 @@
         <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4001,13 +4005,13 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4025,7 +4029,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4043,10 +4047,10 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4054,7 +4058,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4080,16 +4084,16 @@
         <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4102,7 +4106,7 @@
         <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>77</v>
@@ -4138,7 +4142,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4156,10 +4160,10 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4167,7 +4171,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4190,16 +4194,16 @@
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4213,7 +4217,7 @@
         <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>77</v>
@@ -4249,7 +4253,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4267,10 +4271,10 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4278,7 +4282,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4301,13 +4305,13 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4358,7 +4362,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4376,10 +4380,10 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4387,7 +4391,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4410,16 +4414,16 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4469,7 +4473,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4487,10 +4491,10 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4501,7 +4505,7 @@
         <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>77</v>
@@ -4634,13 +4638,13 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4691,7 +4695,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4712,7 +4716,7 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4720,7 +4724,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4746,10 +4750,10 @@
         <v>132</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>164</v>
@@ -4793,7 +4797,7 @@
         <v>135</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>77</v>
@@ -4802,7 +4806,7 @@
         <v>136</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4823,7 +4827,7 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4831,7 +4835,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4857,16 +4861,16 @@
         <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -4876,7 +4880,7 @@
         <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4891,13 +4895,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -4915,7 +4919,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4936,7 +4940,7 @@
         <v>99</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4944,7 +4948,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4967,19 +4971,19 @@
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -4989,7 +4993,7 @@
         <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>77</v>
@@ -5004,13 +5008,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5028,7 +5032,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5046,10 +5050,10 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5057,7 +5061,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5083,16 +5087,16 @@
         <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5105,7 +5109,7 @@
         <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>77</v>
@@ -5141,7 +5145,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5159,10 +5163,10 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5170,7 +5174,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5193,16 +5197,16 @@
         <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5216,7 +5220,7 @@
         <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>77</v>
@@ -5252,7 +5256,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5270,10 +5274,10 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5281,7 +5285,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5304,13 +5308,13 @@
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5361,7 +5365,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5379,10 +5383,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5390,7 +5394,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5413,16 +5417,16 @@
         <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5472,7 +5476,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5490,10 +5494,10 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5501,11 +5505,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5527,13 +5531,13 @@
         <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5559,13 +5563,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5583,7 +5587,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>85</v>
@@ -5598,7 +5602,7 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5607,16 +5611,16 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5635,13 +5639,13 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5671,10 +5675,10 @@
         <v>111</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -5692,7 +5696,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5707,25 +5711,25 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5747,10 +5751,10 @@
         <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5777,13 +5781,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -5801,7 +5805,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5819,18 +5823,18 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5853,17 +5857,17 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -5912,7 +5916,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5927,21 +5931,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5964,17 +5968,17 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6023,7 +6027,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6038,21 +6042,21 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6075,13 +6079,13 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6132,7 +6136,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6147,25 +6151,25 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6184,16 +6188,16 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6243,7 +6247,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6258,13 +6262,13 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6272,7 +6276,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6295,13 +6299,13 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6352,7 +6356,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6376,12 +6380,12 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6404,13 +6408,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6461,7 +6465,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6482,7 +6486,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6490,7 +6494,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6516,10 +6520,10 @@
         <v>132</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>164</v>
@@ -6572,7 +6576,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6593,7 +6597,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6601,11 +6605,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6627,10 +6631,10 @@
         <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>164</v>
@@ -6685,7 +6689,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6714,7 +6718,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6737,13 +6741,13 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6770,13 +6774,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -6794,7 +6798,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6818,12 +6822,12 @@
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6846,13 +6850,13 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6903,7 +6907,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6927,12 +6931,12 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6955,16 +6959,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7014,7 +7018,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7029,13 +7033,13 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7043,7 +7047,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7069,10 +7073,10 @@
         <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7123,7 +7127,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7144,7 +7148,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7152,7 +7156,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7175,13 +7179,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7232,7 +7236,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7253,7 +7257,7 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7261,7 +7265,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7284,13 +7288,13 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7341,7 +7345,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7362,7 +7366,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7370,7 +7374,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7396,10 +7400,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>164</v>
@@ -7452,7 +7456,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7473,7 +7477,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7481,11 +7485,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7507,10 +7511,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>164</v>
@@ -7565,7 +7569,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7594,7 +7598,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7617,16 +7621,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7655,10 +7659,10 @@
         <v>111</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -7676,7 +7680,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>85</v>
@@ -7697,7 +7701,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -7705,7 +7709,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7728,16 +7732,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7787,7 +7791,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7808,7 +7812,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -7816,7 +7820,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7839,13 +7843,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7896,7 +7900,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -7917,7 +7921,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-care-gap-detected-issue.xlsx
+++ b/StructureDefinition-care-gap-detected-issue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="361">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/care-gap-detected-issue</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/care-gap-detected-issue</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-detected-issue</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-detected-issue</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -256,10 +256,6 @@
     <t>Indicates an actual or potential clinical issue with or between one or more active or proposed clinical actions for a patient; e.g. Drug-drug interaction, Ineffective treatment frequency, Procedure-condition conflict, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -297,7 +293,7 @@
     <t>DetectedIssue.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -450,7 +446,7 @@
     <t>canonicalMeasure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/canonical-measure}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/canonical-measure}
 </t>
   </si>
   <si>
@@ -460,7 +456,7 @@
     <t>measurePopulationId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-population-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-population-id}
 </t>
   </si>
   <si>
@@ -470,7 +466,7 @@
     <t>assignedPractitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/assigned-practitioner}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/assigned-practitioner}
 </t>
   </si>
   <si>
@@ -480,7 +476,7 @@
     <t>careGapComplianceDisplayName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/care-gap-compliance-display-name}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/care-gap-compliance-display-name}
 </t>
   </si>
   <si>
@@ -490,7 +486,7 @@
     <t>careGapComplianceFrequency</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/care-gap-compliance-frequency}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/care-gap-compliance-frequency}
 </t>
   </si>
   <si>
@@ -500,7 +496,7 @@
     <t>careGapComplianceMet</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/care-gap-compliance-met}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/care-gap-compliance-met}
 </t>
   </si>
   <si>
@@ -510,7 +506,7 @@
     <t>relatedIssue</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/related-issue}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/related-issue}
 </t>
   </si>
   <si>
@@ -666,7 +662,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/identifier-type"/&gt;
     &lt;code value="SSRI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -790,7 +786,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/identifier-type"/&gt;
     &lt;code value="DRI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1710,16 +1706,16 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>77</v>
@@ -1727,7 +1723,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1738,28 +1734,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1809,13 +1805,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -1838,7 +1834,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1849,7 +1845,7 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
@@ -1861,13 +1857,13 @@
         <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1918,28 +1914,28 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>77</v>
@@ -1947,7 +1943,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1958,28 +1954,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2029,19 +2025,19 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
@@ -2058,7 +2054,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2069,7 +2065,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2081,16 +2077,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2116,43 +2112,43 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
@@ -2169,18 +2165,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -2192,16 +2188,16 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2251,28 +2247,28 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>77</v>
@@ -2280,11 +2276,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2303,16 +2299,16 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2362,7 +2358,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2383,7 +2379,7 @@
         <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
@@ -2391,7 +2387,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2399,7 +2395,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>76</v>
@@ -2414,13 +2410,13 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2459,17 +2455,17 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2481,7 +2477,7 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -2498,20 +2494,20 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
@@ -2523,13 +2519,13 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2580,7 +2576,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2589,10 +2585,10 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -2609,20 +2605,20 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>77</v>
@@ -2634,13 +2630,13 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2691,7 +2687,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2700,10 +2696,10 @@
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
@@ -2720,10 +2716,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>77</v>
@@ -2745,13 +2741,13 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2802,7 +2798,7 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2811,10 +2807,10 @@
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>77</v>
@@ -2831,10 +2827,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>77</v>
@@ -2844,7 +2840,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -2856,13 +2852,13 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2913,7 +2909,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2922,10 +2918,10 @@
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>77</v>
@@ -2942,10 +2938,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>77</v>
@@ -2955,7 +2951,7 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>77</v>
@@ -2967,13 +2963,13 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3024,7 +3020,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3033,10 +3029,10 @@
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>77</v>
@@ -3053,10 +3049,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>77</v>
@@ -3066,7 +3062,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3078,13 +3074,13 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3135,7 +3131,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3144,10 +3140,10 @@
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>77</v>
@@ -3164,10 +3160,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>77</v>
@@ -3189,13 +3185,13 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3246,7 +3242,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3255,10 +3251,10 @@
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>77</v>
@@ -3275,11 +3271,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3292,25 +3288,25 @@
         <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3359,7 +3355,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3371,7 +3367,7 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>77</v>
@@ -3380,7 +3376,7 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3388,7 +3384,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3396,7 +3392,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>76</v>
@@ -3408,20 +3404,20 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3458,19 +3454,19 @@
         <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AB18" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AB18" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AC18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3482,27 +3478,27 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>77</v>
@@ -3512,29 +3508,29 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3583,7 +3579,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3595,24 +3591,24 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3623,7 +3619,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -3635,13 +3631,13 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3692,28 +3688,28 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3721,11 +3717,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3744,16 +3740,16 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3791,19 +3787,19 @@
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB21" t="s" s="2">
+      <c r="AE21" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3815,7 +3811,7 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>77</v>
@@ -3824,7 +3820,7 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3832,7 +3828,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3843,31 +3839,31 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -3877,67 +3873,67 @@
         <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="S22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W22" t="s" s="2">
+      <c r="X22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3945,7 +3941,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3953,34 +3949,34 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -3990,67 +3986,67 @@
         <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="S23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W23" t="s" s="2">
+      <c r="X23" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="AL23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4058,7 +4054,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4069,31 +4065,31 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4106,64 +4102,64 @@
         <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="T24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4171,7 +4167,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4182,28 +4178,28 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4217,64 +4213,64 @@
         <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4282,7 +4278,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4293,25 +4289,25 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4362,28 +4358,28 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4391,7 +4387,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4402,28 +4398,28 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4473,28 +4469,28 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4502,10 +4498,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>77</v>
@@ -4515,29 +4511,29 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4586,7 +4582,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4598,24 +4594,24 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4626,7 +4622,7 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -4638,13 +4634,13 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4695,28 +4691,28 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4724,11 +4720,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4747,16 +4743,16 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4794,19 +4790,19 @@
         <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB30" t="s" s="2">
+      <c r="AE30" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4818,7 +4814,7 @@
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
@@ -4827,7 +4823,7 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4835,7 +4831,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4846,31 +4842,31 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -4880,67 +4876,67 @@
         <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W31" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="S31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W31" t="s" s="2">
+      <c r="X31" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="Y31" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
+      <c r="AF31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4948,7 +4944,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4956,34 +4952,34 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -4993,7 +4989,7 @@
         <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>77</v>
@@ -5008,52 +5004,52 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="AL32" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5061,7 +5057,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5072,31 +5068,31 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5109,64 +5105,64 @@
         <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="T33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
+      <c r="AF33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5174,7 +5170,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5185,28 +5181,28 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5220,64 +5216,64 @@
         <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="T34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5285,7 +5281,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5296,25 +5292,25 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5365,28 +5361,28 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5394,7 +5390,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5405,28 +5401,28 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5476,28 +5472,28 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5505,39 +5501,39 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="I37" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5563,64 +5559,64 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5636,16 +5632,16 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5672,64 +5668,64 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5745,16 +5741,16 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5781,60 +5777,60 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5842,32 +5838,32 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -5916,36 +5912,36 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5953,32 +5949,32 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6027,36 +6023,36 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6076,16 +6072,16 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6136,40 +6132,40 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6185,19 +6181,19 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6247,7 +6243,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6259,16 +6255,16 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6276,7 +6272,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6299,13 +6295,13 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6356,7 +6352,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6368,7 +6364,7 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
@@ -6380,12 +6376,12 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6396,7 +6392,7 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6408,13 +6404,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6465,28 +6461,28 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6494,11 +6490,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6517,16 +6513,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6576,7 +6572,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6588,7 +6584,7 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
@@ -6597,7 +6593,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6605,11 +6601,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6622,25 +6618,25 @@
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="M47" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -6689,7 +6685,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6701,7 +6697,7 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
@@ -6710,7 +6706,7 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -6718,7 +6714,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6741,13 +6737,13 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6774,14 +6770,14 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="X48" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="X48" t="s" s="2">
+      <c r="Y48" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
       </c>
@@ -6798,7 +6794,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6810,7 +6806,7 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
@@ -6822,12 +6818,12 @@
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6850,13 +6846,13 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6907,7 +6903,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6919,7 +6915,7 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
@@ -6931,12 +6927,12 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6959,16 +6955,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7018,28 +7014,28 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7047,7 +7043,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7070,13 +7066,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7127,19 +7123,19 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
@@ -7148,7 +7144,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7156,7 +7152,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7179,13 +7175,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7236,7 +7232,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7248,7 +7244,7 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
@@ -7257,7 +7253,7 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7265,7 +7261,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7276,7 +7272,7 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -7288,13 +7284,13 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7345,28 +7341,28 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7374,11 +7370,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7397,16 +7393,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7456,7 +7452,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7468,7 +7464,7 @@
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
@@ -7477,7 +7473,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7485,11 +7481,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7502,25 +7498,25 @@
         <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="M55" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -7569,7 +7565,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7581,7 +7577,7 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
@@ -7590,7 +7586,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7598,7 +7594,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7606,10 +7602,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -7621,16 +7617,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7656,14 +7652,14 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
       </c>
@@ -7680,19 +7676,19 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
@@ -7701,7 +7697,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -7709,7 +7705,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7720,7 +7716,7 @@
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -7732,16 +7728,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7791,19 +7787,19 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
@@ -7812,7 +7808,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -7820,7 +7816,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7831,7 +7827,7 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -7843,13 +7839,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7900,19 +7896,19 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
@@ -7921,7 +7917,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
